--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-deidentified-instant-extension.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-deidentified-instant-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -361,7 +361,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-datetime-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}</t>
+uds-plus-datetime-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-res-1a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-res-1b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
 </sst>
 </file>
